--- a/data-raw/markerMap.xlsx
+++ b/data-raw/markerMap.xlsx
@@ -110,7 +110,7 @@
     <t>Pair</t>
   </si>
   <si>
-    <t>CMpos</t>
+    <t>PosCM</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data-raw/markerMap.xlsx
+++ b/data-raw/markerMap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnusdv\Documents\Rstuff\PED_SUITE\shinyapps\klink\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\Rstuff\PED_SUITE\shinyapps\klink\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75992FD-DDA0-4547-B01F-B42A62D0F11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>D18S51</t>
   </si>
@@ -53,9 +54,6 @@
     <t>D21S2055</t>
   </si>
   <si>
-    <t>HD-plex/SureID</t>
-  </si>
-  <si>
     <t>Penta D</t>
   </si>
   <si>
@@ -89,9 +87,6 @@
     <t>D10S2325</t>
   </si>
   <si>
-    <t>HD-plex</t>
-  </si>
-  <si>
     <t>D5S2500</t>
   </si>
   <si>
@@ -111,12 +106,21 @@
   </si>
   <si>
     <t>PosCM</t>
+  </si>
+  <si>
+    <t>Fusion6C/SureID</t>
+  </si>
+  <si>
+    <t>HDplex</t>
+  </si>
+  <si>
+    <t>HDplex/SureID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,15 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -462,342 +463,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>70.320670000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>70.320800000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>95.449209999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>118.66248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>119.96228000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>136.44313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.4018199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28.27346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32.888910000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15.63031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>27.571290000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D14" s="3">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>88.920509999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>91.217460000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3">
+        <v>39.27234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3">
+        <v>51.726179999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>70.320670000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="E18" s="3">
+        <v>49.464779999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>70.320800000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>95.449209999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>118.66248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>119.96228000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>136.44313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.4018199999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D19" s="3">
         <v>21</v>
       </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>28.27346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>32.888910000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4">
-        <v>15.63031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4">
-        <v>27.571290000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4">
-        <v>88.920509999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4">
-        <v>91.217460000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4">
-        <v>39.27234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4">
-        <v>51.726179999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4">
-        <v>49.464779999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>21</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>59.375909999999998</v>
       </c>
     </row>
